--- a/data/allavg.xlsx
+++ b/data/allavg.xlsx
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="L112">
-        <v>7502.3</v>
+        <v>7502.299999999999</v>
       </c>
     </row>
     <row r="113">
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="L256">
-        <v>8076.95</v>
+        <v>8076.950000000001</v>
       </c>
     </row>
     <row r="257">
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="L276">
-        <v>6131.2</v>
+        <v>6131.200000000001</v>
       </c>
     </row>
     <row r="277">
